--- a/RPA_Study/RPA_EXCEL/scores.xlsx
+++ b/RPA_Study/RPA_EXCEL/scores.xlsx
@@ -1068,9 +1068,15 @@
           <t>프로젝트</t>
         </is>
       </c>
-      <c r="H1">
-        <f>SUM(B1:G1)</f>
-        <v/>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>총점</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>학점</t>
+        </is>
       </c>
     </row>
     <row r="2">
